--- a/Output/Modelling/XGBoost/Tables/Most_Complex_Models_Best_Params.xlsx
+++ b/Output/Modelling/XGBoost/Tables/Most_Complex_Models_Best_Params.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>max_depth</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>min_child_weight</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>n_estimators</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>objective</t>
         </is>
@@ -485,15 +490,18 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>multi:softprob</t>
         </is>
@@ -510,19 +518,20 @@
           <t>gbtree</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>0.01</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
         <v>100</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>multi:softprob</t>
         </is>

--- a/Output/Modelling/XGBoost/Tables/Most_Complex_Models_Best_Params.xlsx
+++ b/Output/Modelling/XGBoost/Tables/Most_Complex_Models_Best_Params.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>booster</t>
+          <t>Booster</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>Gamma</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>Learning Rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>Max Depth</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>min_child_weight</t>
+          <t>Min Child Weight</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>Number of Estimators</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>Objective</t>
         </is>
       </c>
     </row>
